--- a/biology/Zoologie/Isotobrya/Isotobrya.xlsx
+++ b/biology/Zoologie/Isotobrya/Isotobrya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isotobrya est un genre de collemboles de la famille des Entomobryidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 8 septembre 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 8 septembre 2019) :
 Isotobrya burraensis Womersley, 1940
 Isotobrya wheeleri Womersley, 1934</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Womersley, 1934 : A preliminary account of the Collembola-Arthropleona of Australia. Part II Superfamily Entomobryoidea. Transactions of the Royal Society of South Australia, vol. 58, p. 86-138.</t>
         </is>
